--- a/outputs/BURs/BUR Testing_PES.xlsx
+++ b/outputs/BURs/BUR Testing_PES.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -570,7 +570,9 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>0.0498</v>
+      </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -620,7 +622,9 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="n">
+        <v>0.0498</v>
+      </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -753,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.0996</v>
+        <v>0.0366</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -821,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.0996</v>
+        <v>0.0366</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -889,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.0996</v>
+        <v>0.0366</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1242,7 +1246,9 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="n">
+        <v>0.0498</v>
+      </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -1292,7 +1298,9 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="n">
+        <v>0.0498</v>
+      </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.051</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1493,7 +1501,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.051</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1561,7 +1569,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.051</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1905,7 +1913,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0276</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1973,7 +1981,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0276</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2041,7 +2049,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0276</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -2387,7 +2395,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.1134</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2455,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.1134</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2523,7 +2531,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1134</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -2859,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.1221</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2927,7 +2935,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.1221</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2995,7 +3003,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1221</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3349,7 +3357,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.1647</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3417,7 +3425,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.1647</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3485,7 +3493,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.1647</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3829,7 +3837,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>0.3081</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3897,7 +3905,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.3081</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3965,7 +3973,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.3081</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -4227,7 +4235,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.1719</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4295,7 +4303,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.1719</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4363,7 +4371,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.1719</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>

--- a/outputs/BURs/BUR Testing_PES.xlsx
+++ b/outputs/BURs/BUR Testing_PES.xlsx
@@ -571,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -623,7 +623,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -757,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.0366</v>
+        <v>0.0454</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -825,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.0366</v>
+        <v>0.0454</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -893,61 +893,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.0366</v>
+        <v>0.0454</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>0.009</v>
+        <v>0.0089</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>0.0109</v>
+        <v>0.0108</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>0.0058</v>
+        <v>0.0057</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>0.0256</v>
+        <v>0.0255</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0.0076</v>
+        <v>0.0082</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.0121</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.00915833333333333</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0249</v>
+        <v>0.027475</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.00915833333333333</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.00915833333333333</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.00915833333333333</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0249</v>
+        <v>0.027475</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.00915833333333333</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.00915833333333333</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.00915833333333333</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0249</v>
+        <v>0.027475</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.0996</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +961,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1029,7 +1029,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1097,13 +1097,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>0.5882</v>
+        <v>0.5333</v>
       </c>
       <c r="G7" s="10" t="n">
         <v>0.4</v>
@@ -1112,46 +1112,46 @@
         <v>0.2857</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>0.4706</v>
+        <v>0.4375</v>
       </c>
       <c r="J7" s="10" t="n">
         <v>0.25</v>
       </c>
       <c r="K7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.7778</v>
       </c>
       <c r="L7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.535211267605634</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1247,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1299,7 +1299,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1433,7 +1433,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1501,7 +1501,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1569,7 +1569,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1590,40 +1590,40 @@
         <v>0.0073</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.0073</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.01275</v>
+        <v>0.014575</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.01275</v>
+        <v>0.014575</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.00425</v>
+        <v>0.00485833333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.01275</v>
+        <v>0.014575</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.051</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="5">
@@ -1637,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1769,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1784,40 +1784,40 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1913,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1981,7 +1981,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2049,7 +2049,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -2058,52 +2058,52 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0046</v>
+        <v>0.0045</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0.0046</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0092</v>
+        <v>0.0091</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0069</v>
+        <v>0.00815</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0069</v>
+        <v>0.00815</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0023</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0069</v>
+        <v>0.00815</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0276</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="5">
@@ -2117,7 +2117,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2181,7 +2181,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2249,7 +2249,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -2266,40 +2266,40 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.9524</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2395,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2463,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2531,61 +2531,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="H4" s="5" t="n">
         <v>0.0162</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0.0164</v>
-      </c>
       <c r="I4" s="5" t="n">
-        <v>0.0379</v>
+        <v>0.0375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.033</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.0139833333333333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.02835</v>
+        <v>0.04195</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.0139833333333333</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.0139833333333333</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.0139833333333333</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.02835</v>
+        <v>0.04195</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.0139833333333333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.0139833333333333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.00945</v>
+        <v>0.0139833333333333</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.02835</v>
+        <v>0.04195</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.1134</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="5">
@@ -2867,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2935,7 +2935,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3003,7 +3003,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3024,40 +3024,40 @@
         <v>0.0041</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0103</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0102</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.030525</v>
+        <v>0.0306</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0102</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.030525</v>
+        <v>0.0306</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0102</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0102</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.010175</v>
+        <v>0.0102</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.030525</v>
+        <v>0.0306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1221</v>
+        <v>0.1224</v>
       </c>
     </row>
     <row r="5">
@@ -3071,7 +3071,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3139,7 +3139,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3207,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3228,40 +3228,40 @@
         <v>0.2</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.222222222222222</v>
+        <v>0.210526315789474</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3357,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3425,7 +3425,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3493,7 +3493,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3514,40 +3514,40 @@
         <v>0.0179</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0237</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0157833333333333</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.041175</v>
+        <v>0.04735</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0157833333333333</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0157833333333333</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0157833333333333</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.041175</v>
+        <v>0.04735</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0157833333333333</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0157833333333333</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.013725</v>
+        <v>0.0157833333333333</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.041175</v>
+        <v>0.04735</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1647</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="5">
@@ -3561,7 +3561,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3619,7 +3619,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3687,7 +3687,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3708,40 +3708,40 @@
         <v>0</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.583333333333333</v>
+        <v>0.538461538461538</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3837,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3905,7 +3905,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3973,7 +3973,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3994,40 +3994,40 @@
         <v>0.0714</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0.0206833333333333</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.077025</v>
+        <v>0.06205</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0.0206833333333333</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0.0206833333333333</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0.0206833333333333</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.077025</v>
+        <v>0.06205</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0.0206833333333333</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0.0206833333333333</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.025675</v>
+        <v>0.0206833333333333</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.077025</v>
+        <v>0.06205</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.3081</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="5">
@@ -4235,7 +4235,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4303,7 +4303,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4371,7 +4371,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -4383,49 +4383,49 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
+        <v>0.0317</v>
+      </c>
+      <c r="I4" s="9" t="n">
         <v>0.0312</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <v>0.0308</v>
-      </c>
       <c r="J4" s="9" t="n">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0123</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.042975</v>
+        <v>0.04225</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.042975</v>
+        <v>0.04225</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.014325</v>
+        <v>0.0140833333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.042975</v>
+        <v>0.04225</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.1719</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="5">
@@ -4439,7 +4439,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4495,7 +4495,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4563,14 +4563,12 @@
         <v>30</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9" t="n">
         <v>0.5</v>
       </c>
@@ -4578,46 +4576,46 @@
         <v>1</v>
       </c>
       <c r="I7" s="9" t="n">
-        <v>0.75</v>
+        <v>0.6667</v>
       </c>
       <c r="J7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/BURs/BUR Testing_PES.xlsx
+++ b/outputs/BURs/BUR Testing_PES.xlsx
@@ -570,9 +570,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.0533</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -622,9 +620,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0.0533</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -757,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.0454</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -825,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.0454</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -893,7 +889,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.0454</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -911,43 +907,43 @@
         <v>0.0255</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0.0082</v>
+        <v>0.0088</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.0121</v>
+        <v>0.0114</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0.00915833333333333</v>
+        <v>0.0076</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.027475</v>
+        <v>0.0278</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.00915833333333333</v>
+        <v>0.00888333333333333</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.00915833333333333</v>
+        <v>0.00888333333333333</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.00915833333333333</v>
+        <v>0.00888333333333333</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.027475</v>
+        <v>0.02665</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.00915833333333333</v>
+        <v>0.00888333333333333</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.00915833333333333</v>
+        <v>0.00888333333333333</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.00915833333333333</v>
+        <v>0.00888333333333333</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.027475</v>
+        <v>0.02665</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.1099</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1029,7 +1025,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1097,7 +1093,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1118,40 +1114,40 @@
         <v>0.25</v>
       </c>
       <c r="K7" s="10" t="n">
-        <v>0.7778</v>
+        <v>0.75</v>
       </c>
       <c r="L7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.5833</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.535211267605634</v>
+        <v>0.525</v>
       </c>
     </row>
   </sheetData>
@@ -1246,9 +1242,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0.0533</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -1298,9 +1292,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>0.0533</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -1433,7 +1425,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0533</v>
+        <v>0.0316</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1501,7 +1493,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0533</v>
+        <v>0.0316</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1569,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0533</v>
+        <v>0.0316</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1590,40 +1582,40 @@
         <v>0.0073</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.0073</v>
+        <v>0.0049</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.0098</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.014575</v>
+        <v>0.022</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00526666666666667</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00526666666666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00526666666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.014575</v>
+        <v>0.0158</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00526666666666667</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00526666666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.00485833333333333</v>
+        <v>0.00526666666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.014575</v>
+        <v>0.0158</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.0583</v>
+        <v>0.0632</v>
       </c>
     </row>
     <row r="5">
@@ -1786,11 +1778,9 @@
       <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>0.333333333333333</v>
@@ -1913,7 +1903,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.0134</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1981,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.0134</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2049,7 +2039,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.0134</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -2061,10 +2051,10 @@
         <v>0.0045</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.0046</v>
+        <v>0.0045</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0091</v>
+        <v>0.009</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>0.0045</v>
@@ -2073,37 +2063,37 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.00271666666666667</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.00815</v>
+        <v>0.0045</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.00271666666666667</v>
+        <v>0.00223333333333333</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00271666666666667</v>
+        <v>0.00223333333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00271666666666667</v>
+        <v>0.00223333333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.00815</v>
+        <v>0.0067</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.00271666666666667</v>
+        <v>0.00223333333333333</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00271666666666667</v>
+        <v>0.00223333333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00271666666666667</v>
+        <v>0.00223333333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.00815</v>
+        <v>0.0067</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0326</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="5">
@@ -2117,7 +2107,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2181,7 +2171,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2249,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -2266,40 +2256,38 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.9524</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.875</v>
-      </c>
+        <v>0.9091</v>
+      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.8333</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.875</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2383,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.076</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2463,7 +2451,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.076</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2531,61 +2519,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.076</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.016</v>
+        <v>0.0161</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0053</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.0162</v>
+        <v>0.0163</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.0375</v>
+        <v>0.0377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.033</v>
+        <v>0.0331</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.0139833333333333</v>
+        <v>0.0055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.04195</v>
+        <v>0.0383</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0139833333333333</v>
+        <v>0.0126666666666667</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0139833333333333</v>
+        <v>0.0126666666666667</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0139833333333333</v>
+        <v>0.0126666666666667</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.04195</v>
+        <v>0.038</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.0139833333333333</v>
+        <v>0.0126666666666667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0139833333333333</v>
+        <v>0.0126666666666667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0139833333333333</v>
+        <v>0.0126666666666667</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.04195</v>
+        <v>0.038</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.1678</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="5">
@@ -2740,9 +2728,7 @@
       <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>0</v>
       </c>
@@ -2867,7 +2853,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0533</v>
+        <v>0.0569</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2935,7 +2921,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.0533</v>
+        <v>0.0569</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3003,7 +2989,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0533</v>
+        <v>0.0569</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -3012,52 +2998,52 @@
         <v>0.0121</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0203</v>
+        <v>0.0202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0041</v>
+        <v>0.004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0365</v>
+        <v>0.0363</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0041</v>
+        <v>0.0061</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0.0103</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.0102</v>
+        <v>0.0041</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0306</v>
+        <v>0.0205</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0102</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0102</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0102</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0306</v>
+        <v>0.02845</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0102</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0102</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0102</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0306</v>
+        <v>0.02845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1224</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="5">
@@ -3071,7 +3057,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3139,7 +3125,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3207,7 +3193,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3231,37 +3217,37 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.3333</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.210526315789474</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3343,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0533</v>
+        <v>0.1536</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3425,7 +3411,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0533</v>
+        <v>0.1536</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3493,61 +3479,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0533</v>
+        <v>0.1536</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.0187</v>
+        <v>0.0291</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.0186</v>
+        <v>0.0297</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.037</v>
+        <v>0.0581</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0179</v>
+        <v>0.0283</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0237</v>
+        <v>0.0377</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0157833333333333</v>
+        <v>0.0291</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.04735</v>
+        <v>0.0952</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.0157833333333333</v>
+        <v>0.0256</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0157833333333333</v>
+        <v>0.0256</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0157833333333333</v>
+        <v>0.0256</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.04735</v>
+        <v>0.0768</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0157833333333333</v>
+        <v>0.0256</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0157833333333333</v>
+        <v>0.0256</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0157833333333333</v>
+        <v>0.0256</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.04735</v>
+        <v>0.0768</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1894</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="5">
@@ -3561,7 +3547,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3619,7 +3605,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3687,7 +3673,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3695,14 +3681,12 @@
       <c r="F7" s="7" t="n">
         <v>0.8571</v>
       </c>
-      <c r="G7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>0.6364</v>
+        <v>0.6</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>0</v>
@@ -3710,38 +3694,36 @@
       <c r="K7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <v>0.538461538461538</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.538461538461538</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3819,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>0.0533</v>
+        <v>0.0447</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3905,7 +3887,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0533</v>
+        <v>0.0447</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3973,13 +3955,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.0533</v>
+        <v>0.0447</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.0345</v>
+        <v>0.0118</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0</v>
@@ -3988,46 +3970,46 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.0337</v>
+        <v>0.0114</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0714</v>
+        <v>0.0225</v>
       </c>
       <c r="K4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.0206833333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.06205</v>
+        <v>0.0329</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.0206833333333333</v>
+        <v>0.00745</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0206833333333333</v>
+        <v>0.00745</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0206833333333333</v>
+        <v>0.00745</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.06205</v>
+        <v>0.02235</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.0206833333333333</v>
+        <v>0.00745</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0206833333333333</v>
+        <v>0.00745</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0206833333333333</v>
+        <v>0.00745</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.06205</v>
+        <v>0.02235</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.2482</v>
+        <v>0.0894</v>
       </c>
     </row>
     <row r="5">
@@ -4040,7 +4022,9 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -4086,7 +4070,9 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -4140,6 +4126,66 @@
       </c>
       <c r="V6" s="8" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="U7" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="V7" s="8" t="n">
+        <v>0.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +4281,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.0533</v>
+        <v>0.0828</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4303,7 +4349,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.0533</v>
+        <v>0.0828</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4371,7 +4417,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.0533</v>
+        <v>0.0828</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -4395,37 +4441,37 @@
         <v>0.0123</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0125</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.04225</v>
+        <v>0.0494</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0138</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0138</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0138</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.04225</v>
+        <v>0.0414</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0138</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0138</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0140833333333333</v>
+        <v>0.0138</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.04225</v>
+        <v>0.0414</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.169</v>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="5">
@@ -4584,11 +4630,9 @@
       <c r="K7" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="9" t="n">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="L7" s="9"/>
       <c r="M7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="N7" s="9" t="n">
         <v>0.714285714285714</v>

--- a/outputs/BURs/BUR Testing_PES.xlsx
+++ b/outputs/BURs/BUR Testing_PES.xlsx
@@ -753,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.0533</v>
+        <v>0.0602</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -821,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.0533</v>
+        <v>0.0602</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -889,7 +889,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.0533</v>
+        <v>0.0602</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -904,7 +904,7 @@
         <v>0.0057</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>0.0255</v>
+        <v>0.0254</v>
       </c>
       <c r="J4" s="10" t="n">
         <v>0.0088</v>
@@ -919,31 +919,31 @@
         <v>0.0278</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.00888333333333333</v>
+        <v>0.007</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.00888333333333333</v>
+        <v>0.0086</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.00888333333333333</v>
+        <v>0.0086</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.02665</v>
+        <v>0.0258</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.00888333333333333</v>
+        <v>0.0086</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.00888333333333333</v>
+        <v>0.0086</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.00888333333333333</v>
+        <v>0.0086</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.02665</v>
+        <v>0.0258</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.1066</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="5">
@@ -957,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1025,7 +1025,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1093,7 +1093,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1123,31 +1123,31 @@
         <v>0.5833</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.8261</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.525</v>
+        <v>0.592233009708738</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1425,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0316</v>
+        <v>0.0389</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1493,7 +1493,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0316</v>
+        <v>0.0389</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0316</v>
+        <v>0.0389</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1591,31 +1591,31 @@
         <v>0.022</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.00526666666666667</v>
+        <v>0.0072</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.00526666666666667</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.00526666666666667</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0158</v>
+        <v>0.016675</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.00526666666666667</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.00526666666666667</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.00526666666666667</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0158</v>
+        <v>0.016675</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.0632</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="5">
@@ -1629,7 +1629,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1693,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1761,7 +1761,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1783,31 +1783,31 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1903,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0134</v>
+        <v>0.0136</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1971,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0134</v>
+        <v>0.0136</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2039,7 +2039,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0134</v>
+        <v>0.0136</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -2054,7 +2054,7 @@
         <v>0.0045</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.009</v>
+        <v>0.0091</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>0.0045</v>
@@ -2069,31 +2069,31 @@
         <v>0.0045</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.00223333333333333</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00223333333333333</v>
+        <v>0.00194166666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00223333333333333</v>
+        <v>0.00194166666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0067</v>
+        <v>0.005825</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.00223333333333333</v>
+        <v>0.00194166666666667</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00223333333333333</v>
+        <v>0.00194166666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00223333333333333</v>
+        <v>0.00194166666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0067</v>
+        <v>0.005825</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0268</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="5">
@@ -2107,7 +2107,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2171,7 +2171,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -2260,34 +2260,34 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="n">
-        <v>0.8333</v>
+        <v>0.8696</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.862068965517241</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2383,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.076</v>
+        <v>0.0762</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2451,7 +2451,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.076</v>
+        <v>0.0762</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2519,7 +2519,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.076</v>
+        <v>0.0762</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -2549,31 +2549,31 @@
         <v>0.0383</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0126666666666667</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0126666666666667</v>
+        <v>0.0108833333333333</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0126666666666667</v>
+        <v>0.0108833333333333</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.038</v>
+        <v>0.03265</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.0126666666666667</v>
+        <v>0.0108833333333333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0126666666666667</v>
+        <v>0.0108833333333333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0126666666666667</v>
+        <v>0.0108833333333333</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.038</v>
+        <v>0.03265</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.152</v>
+        <v>0.1306</v>
       </c>
     </row>
     <row r="5">
@@ -2732,9 +2732,7 @@
       <c r="M7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5" t="n">
         <v>0</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0569</v>
+        <v>0.0648</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2921,7 +2919,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.0569</v>
+        <v>0.0648</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2989,61 +2987,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0569</v>
+        <v>0.0648</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.0121</v>
+        <v>0.012</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0202</v>
+        <v>0.0201</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0.004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0363</v>
+        <v>0.0361</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>0.0061</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>0.0041</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0205</v>
+        <v>0.0203</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.00925833333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.00925833333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.02845</v>
+        <v>0.027775</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.00925833333333333</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.00925833333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.00925833333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02845</v>
+        <v>0.027775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1138</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="5">
@@ -3057,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3125,7 +3123,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3193,7 +3191,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3211,7 +3209,7 @@
         <v>0.2308</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="K7" s="6" t="n">
         <v>0</v>
@@ -3220,34 +3218,34 @@
         <v>0.5</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>0.3333</v>
+        <v>0.3077</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.9167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.28</v>
+        <v>0.473684210526316</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3341,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.1536</v>
+        <v>0.1624</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3411,7 +3409,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.1536</v>
+        <v>0.1624</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3479,61 +3477,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.1536</v>
+        <v>0.1624</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.0291</v>
+        <v>0.0288</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.0297</v>
+        <v>0.0294</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0581</v>
+        <v>0.0575</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0283</v>
+        <v>0.028</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0377</v>
+        <v>0.0374</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0291</v>
+        <v>0.0288</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0952</v>
+        <v>0.0943</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.0256</v>
+        <v>0.0098</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0256</v>
+        <v>0.0232</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0256</v>
+        <v>0.0232</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0768</v>
+        <v>0.0696</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0256</v>
+        <v>0.0232</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0256</v>
+        <v>0.0232</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0256</v>
+        <v>0.0232</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0768</v>
+        <v>0.0696</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.3072</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="5">
@@ -3547,7 +3545,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3605,7 +3603,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3673,7 +3671,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3699,31 +3697,31 @@
         <v>0</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3817,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>0.0447</v>
+        <v>0.0643</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3887,7 +3885,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0447</v>
+        <v>0.0643</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3955,13 +3953,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.0447</v>
+        <v>0.0643</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0</v>
@@ -3970,46 +3968,46 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.0114</v>
+        <v>0.0106</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0225</v>
+        <v>0.0171</v>
       </c>
       <c r="K4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.0105</v>
+        <v>0.0081</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0329</v>
+        <v>0.0251</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.00745</v>
+        <v>0.0248</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.00745</v>
+        <v>0.00918333333333333</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.00745</v>
+        <v>0.00918333333333333</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.02235</v>
+        <v>0.02755</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.00745</v>
+        <v>0.00918333333333333</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.00745</v>
+        <v>0.00918333333333333</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.00745</v>
+        <v>0.00918333333333333</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.02235</v>
+        <v>0.02755</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.0894</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="5">
@@ -4023,7 +4021,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4071,7 +4069,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4139,7 +4137,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -4152,40 +4150,40 @@
       <c r="I7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>0.666666666666667</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="S7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>0.0828</v>
+        <v>0.1097</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4349,7 +4347,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>0.0828</v>
+        <v>0.1097</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4417,7 +4415,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>0.0828</v>
+        <v>0.1097</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -4429,49 +4427,49 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>0.0317</v>
+        <v>0.0357</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>0.0312</v>
+        <v>0.0349</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0.0244</v>
+        <v>0.037</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.0123</v>
+        <v>0.0189</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>0.0125</v>
+        <v>0.0192</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0494</v>
+        <v>0.0755</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.0138</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0138</v>
+        <v>0.015675</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0138</v>
+        <v>0.015675</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0414</v>
+        <v>0.047025</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.0138</v>
+        <v>0.015675</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0138</v>
+        <v>0.015675</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0138</v>
+        <v>0.015675</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0414</v>
+        <v>0.047025</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.1656</v>
+        <v>0.1881</v>
       </c>
     </row>
     <row r="5">
@@ -4485,7 +4483,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4541,7 +4539,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4609,7 +4607,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -4624,42 +4622,38 @@
       <c r="I7" s="9" t="n">
         <v>0.6667</v>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N7" s="9" t="n">
-        <v>0.714285714285714</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="9"/>
       <c r="O7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.714285714285714</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
